--- a/Students.xlsx
+++ b/Students.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr autoCompressPictures="1"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="Student" sheetId="1" r:id="rId3"/>
+    <sheet name="Student" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sno</t>
   </si>
@@ -20,22 +22,52 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">City</t>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
     <t xml:space="preserve">Total Marks</t>
   </si>
   <si>
+    <t xml:space="preserve">Added on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utsav bhattarai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yamuna bhattarai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 t</t>
+  </si>
+  <si>
     <t xml:space="preserve">ram</t>
   </si>
   <si>
-    <t xml:space="preserve">butwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utsav bhattarai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitwal</t>
+    <t xml:space="preserve">devinagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
@@ -43,24 +75,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -68,13 +111,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -82,54 +181,396 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d prstMaterial="warmMatte">
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="0"/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.147857142857141" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.147857142857141" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.147857142857141" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.147857142857141" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.147857142857141" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.147857142857141" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.147857142857141" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.147857142857141" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.147857142857141" style="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2">
+    <row r="2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>9765308883</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5">
+        <v>59152</v>
+      </c>
+      <c r="H2" s="4">
+        <v>80</v>
+      </c>
+      <c r="I2" s="5">
+        <v>44964.87818287037</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9847508469</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5">
+        <v>59631</v>
+      </c>
+      <c r="H3" s="4">
+        <v>70</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44964.87900462963</v>
       </c>
     </row>
   </sheetData>
